--- a/outputs-HGR-r202/test-p__Bacteroidota_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-p__Bacteroidota_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="207">
   <si>
     <t>Row</t>
   </si>
@@ -655,7 +655,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -665,14 +665,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -691,2222 +695,2222 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>940.71008313601578</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>1020.107469590683</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>512.59965668498512</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>1567.4078853265389</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>994.19542152882877</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>817.81887403784185</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>894.5023493622557</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>306.44659084786787</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>235.05012499429125</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>413.51132709682548</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>751.19478832031245</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>281.15848284538021</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>762.98239432514947</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>376.50505377510132</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>1480.1278573629938</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>709.92825973824688</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>812.91908019221296</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>414.6520297883132</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>703.25049747096682</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>409.89257690578989</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>554.46798947148409</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>791.24581057149339</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>1536.7456354601679</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>1040.0651044450926</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>943.75048948242693</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>847.75242510088765</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>727.85255884362846</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>1438.845430706572</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>1040.684799605526</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>510.56343743872873</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>703.21353943551549</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>528.40728598811484</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>943.99178712000048</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>1159.6228509874179</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>683.11920172131613</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>804.42185195584671</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>801.96843022655776</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>975.8609936856376</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>966.23546594888762</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>1273.2742951763253</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>986.35925123418451</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>1065.1732582564684</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>960.52985855154316</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>983.32316199007141</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>1100.9063996944756</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>1097.8362941436485</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>1162.7189766254087</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>1299.4942711528142</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>1528.7374166993548</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>1247.8104549188472</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>932.50266566448454</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>1074.4303254708987</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>964.04374513434459</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>838.71130262380393</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>472.10560982204976</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>884.52779146576245</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>674.77323496908934</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>953.24186982032234</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>398.68740206826993</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>822.5922229406201</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>1146.5253018781366</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>941.63658990784779</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>570.17120413063321</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>204.73591427604879</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>394.05295232651014</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>1626.1966164675587</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>1666.5079390925569</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>676.60501438768006</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>824.93861879722681</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>524.46765413286835</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>605.22922377272903</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>1061.7847420968126</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>628.34972078436772</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>687.3740865151276</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>911.51755415316939</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>902.42933592127793</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>1570.7264501421298</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>873.81703830605989</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>991.140195591478</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>1014.487903238396</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>436.44556659896494</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>653.28021878638742</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>701.64888996910054</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>1400.5953972205471</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>981.0797891882346</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>659.72789067990038</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>341.79052099911684</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>805.32050190498035</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>1394.7319550367931</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>957.42653041126437</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>1029.0247797799941</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>1329.4615182883067</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>1775.9210126133744</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>929.98623793345064</v>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>762.98201961308064</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>1401.1603609688061</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>1548.9814336897632</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>864.19178926949144</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>960.24102853197428</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>767.66786742605223</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>1073.3919253257222</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>978.27913903164699</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>1101.1346474834186</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>662.4679227243164</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>870.77158069772463</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>1305.5301167520772</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>646.58275180579471</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>1050.6253443937333</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>1521.54002131229</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>1039.8572284896486</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>1175.9882188885267</v>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>718.64877928389137</v>
       </c>
       <c r="C113">
         <v>1</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="3" t="s">
         <v>113</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>946.54402234876193</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>603.79184191501918</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="s">
-        <v>115</v>
+      <c r="A116" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="B116">
-        <v>1</v>
+        <v>1049.7001492335689</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="s">
-        <v>116</v>
+      <c r="A117" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>1417.6939229598327</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="s">
-        <v>117</v>
+      <c r="A118" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>884.06627231085758</v>
       </c>
       <c r="C118">
         <v>1</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="s">
-        <v>118</v>
+      <c r="A119" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>998.60665433740655</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="s">
-        <v>119</v>
+      <c r="A120" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>899.09793383453143</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="s">
-        <v>120</v>
+      <c r="A121" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>893.86176051540428</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="s">
-        <v>121</v>
+      <c r="A122" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>1652.9846716485993</v>
       </c>
       <c r="C122">
         <v>1</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="s">
-        <v>122</v>
+      <c r="A123" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>1200.4657423024014</v>
       </c>
       <c r="C123">
         <v>1</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="s">
-        <v>123</v>
+      <c r="A124" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>991.0835857966556</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="s">
-        <v>124</v>
+      <c r="A125" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>956.52597642629826</v>
       </c>
       <c r="C125">
         <v>1</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="s">
-        <v>125</v>
+      <c r="A126" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>705.22378743076683</v>
       </c>
       <c r="C126">
         <v>1</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="s">
-        <v>126</v>
+      <c r="A127" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="B127">
-        <v>1</v>
+        <v>965.52541704113287</v>
       </c>
       <c r="C127">
         <v>1</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="s">
-        <v>127</v>
+      <c r="A128" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>1322.7959454895363</v>
       </c>
       <c r="C128">
         <v>1</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="s">
-        <v>128</v>
+      <c r="A129" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>1011.0236942060831</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="s">
-        <v>129</v>
+      <c r="A130" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>1277.5773442770405</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="s">
-        <v>130</v>
+      <c r="A131" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>1264.2288413608255</v>
       </c>
       <c r="C131">
         <v>1</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="s">
-        <v>131</v>
+      <c r="A132" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>757.20939447556634</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="s">
-        <v>132</v>
+      <c r="A133" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="B133">
-        <v>1</v>
+        <v>1340.0449194905152</v>
       </c>
       <c r="C133">
         <v>1</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="s">
-        <v>133</v>
+      <c r="A134" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="B134">
-        <v>1</v>
+        <v>1036.3627255987933</v>
       </c>
       <c r="C134">
         <v>1</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="s">
-        <v>134</v>
+      <c r="A135" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>1041.1205803310218</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="s">
-        <v>135</v>
+      <c r="A136" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>705.13432795678045</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="s">
-        <v>136</v>
+      <c r="A137" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>1334.3458243548471</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="s">
-        <v>137</v>
+      <c r="A138" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>1209.1740088957097</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="s">
-        <v>138</v>
+      <c r="A139" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>1107.8674152404406</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="s">
-        <v>139</v>
+      <c r="A140" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="B140">
-        <v>1</v>
+        <v>1505.3042380701456</v>
       </c>
       <c r="C140">
         <v>1</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="s">
-        <v>140</v>
+      <c r="A141" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>995.27344335345174</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="s">
-        <v>141</v>
+      <c r="A142" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="B142">
-        <v>1</v>
+        <v>541.88093790056791</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="s">
-        <v>142</v>
+      <c r="A143" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="B143">
-        <v>1</v>
+        <v>796.14689923506216</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="s">
-        <v>143</v>
+      <c r="A144" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>1017.6493709106624</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="s">
-        <v>144</v>
+      <c r="A145" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="B145">
-        <v>1</v>
+        <v>644.45936542207573</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="s">
-        <v>145</v>
+      <c r="A146" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>240.44300053812918</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="s">
-        <v>146</v>
+      <c r="A147" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="B147">
-        <v>1</v>
+        <v>229.79213156914597</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="s">
-        <v>147</v>
+      <c r="A148" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="B148">
-        <v>1</v>
+        <v>160.36366628164319</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="s">
-        <v>148</v>
+      <c r="A149" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="B149">
-        <v>1</v>
+        <v>202.57708733591068</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="s">
-        <v>149</v>
+      <c r="A150" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="B150">
-        <v>1</v>
+        <v>187.8272754387994</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="s">
-        <v>150</v>
+      <c r="A151" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="B151">
-        <v>1</v>
+        <v>210.0657832764681</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="s">
-        <v>151</v>
+      <c r="A152" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>213.53815116978188</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="s">
-        <v>152</v>
+      <c r="A153" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>206.13603754838999</v>
       </c>
       <c r="C153">
         <v>1</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="s">
-        <v>153</v>
+      <c r="A154" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>665.79336910060033</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="s">
-        <v>154</v>
+      <c r="A155" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>669.10009581143936</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="s">
-        <v>155</v>
+      <c r="A156" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="B156">
-        <v>1</v>
+        <v>819.45598948323573</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="s">
-        <v>156</v>
+      <c r="A157" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="B157">
-        <v>1</v>
+        <v>341.79052099911684</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="s">
-        <v>157</v>
+      <c r="A158" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="B158">
-        <v>1</v>
+        <v>1393.4031261667453</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="s">
-        <v>158</v>
+      <c r="A159" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>626.70490282627065</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="s">
-        <v>159</v>
+      <c r="A160" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="B160">
-        <v>1</v>
+        <v>1223.0679213573126</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="s">
-        <v>160</v>
+      <c r="A161" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>650.90027976206898</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="s">
-        <v>161</v>
+      <c r="A162" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="B162">
-        <v>1</v>
+        <v>843.64830687173207</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="s">
-        <v>162</v>
+      <c r="A163" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="B163">
-        <v>1</v>
+        <v>1255.0678160484233</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="s">
-        <v>163</v>
+      <c r="A164" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>585.92172127489039</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="s">
-        <v>164</v>
+      <c r="A165" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="B165">
-        <v>1</v>
+        <v>484.39456939896428</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="s">
-        <v>165</v>
+      <c r="A166" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="B166">
-        <v>1</v>
+        <v>734.89107627895305</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="s">
-        <v>166</v>
+      <c r="A167" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="B167">
-        <v>1</v>
+        <v>1192.3812251245572</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="s">
-        <v>167</v>
+      <c r="A168" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="B168">
-        <v>1</v>
+        <v>282.82215759820662</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="s">
-        <v>168</v>
+      <c r="A169" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="B169">
-        <v>1</v>
+        <v>588.05285681662303</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="s">
-        <v>169</v>
+      <c r="A170" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>819.55090240428649</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="s">
-        <v>170</v>
+      <c r="A171" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="B171">
-        <v>1</v>
+        <v>1025.3617287269969</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="s">
-        <v>171</v>
+      <c r="A172" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="B172">
-        <v>1</v>
+        <v>696.36479892337343</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="s">
-        <v>172</v>
+      <c r="A173" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="B173">
-        <v>1</v>
+        <v>817.83371921907656</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="s">
-        <v>173</v>
+      <c r="A174" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="B174">
-        <v>1</v>
+        <v>1542.3300636430756</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="s">
-        <v>174</v>
+      <c r="A175" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="B175">
-        <v>1</v>
+        <v>816.78791199640659</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="1" t="s">
-        <v>175</v>
+      <c r="A176" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="B176">
-        <v>1</v>
+        <v>909.27144631730312</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="1" t="s">
-        <v>176</v>
+      <c r="A177" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="B177">
-        <v>1</v>
+        <v>1005.3535197822789</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="1" t="s">
-        <v>177</v>
+      <c r="A178" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>816.59364680809995</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="1" t="s">
-        <v>178</v>
+      <c r="A179" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>1124.2575606191519</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="1" t="s">
-        <v>179</v>
+      <c r="A180" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>1382.8759034850746</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="1" t="s">
-        <v>180</v>
+      <c r="A181" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="B181">
-        <v>1</v>
+        <v>678.8979574815105</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="1" t="s">
-        <v>181</v>
+      <c r="A182" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>621.84749897212987</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="1" t="s">
-        <v>182</v>
+      <c r="A183" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="B183">
-        <v>1</v>
+        <v>978.28326742838613</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="1" t="s">
-        <v>183</v>
+      <c r="A184" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="B184">
-        <v>1</v>
+        <v>819.94061780537663</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="1" t="s">
-        <v>184</v>
+      <c r="A185" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>903.2933501435682</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="1" t="s">
-        <v>185</v>
+      <c r="A186" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>853.80684288159</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="1" t="s">
-        <v>186</v>
+      <c r="A187" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="B187">
-        <v>1</v>
+        <v>717.71780466036012</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="1" t="s">
-        <v>187</v>
+      <c r="A188" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="B188">
-        <v>1</v>
+        <v>573.66971693705887</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="1" t="s">
-        <v>188</v>
+      <c r="A189" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="B189">
-        <v>1</v>
+        <v>903.53176372221651</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="1" t="s">
-        <v>189</v>
+      <c r="A190" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="B190">
-        <v>1</v>
+        <v>589.55259047158984</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="1" t="s">
-        <v>190</v>
+      <c r="A191" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>745.52318155683884</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="1" t="s">
-        <v>191</v>
+      <c r="A192" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="B192">
-        <v>1</v>
+        <v>769.76263111090589</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="1" t="s">
-        <v>192</v>
+      <c r="A193" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="B193">
-        <v>1</v>
+        <v>879.29100461188341</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="1" t="s">
-        <v>193</v>
+      <c r="A194" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="B194">
-        <v>1</v>
+        <v>651.98994849802034</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="1" t="s">
-        <v>194</v>
+      <c r="A195" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="B195">
-        <v>1</v>
+        <v>962.84450733129324</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="1" t="s">
-        <v>195</v>
+      <c r="A196" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="B196">
-        <v>1</v>
+        <v>626.54148063508228</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="1" t="s">
-        <v>196</v>
+      <c r="A197" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="B197">
-        <v>1</v>
+        <v>932.37971746405697</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="1" t="s">
-        <v>197</v>
+      <c r="A198" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>587.18530643348663</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="1" t="s">
-        <v>198</v>
+      <c r="A199" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="B199">
-        <v>1</v>
+        <v>776.16463472056921</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="1" t="s">
-        <v>199</v>
+      <c r="A200" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="B200">
-        <v>1</v>
+        <v>843.21434942071892</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="1" t="s">
-        <v>200</v>
+      <c r="A201" s="3" t="s">
+        <v>203</v>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>816.72858786416759</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="1" t="s">
-        <v>201</v>
+      <c r="A202" s="3" t="s">
+        <v>204</v>
       </c>
       <c r="B202">
-        <v>1</v>
+        <v>1292.2860709773247</v>
       </c>
       <c r="C202">
         <v>1</v>

--- a/outputs-HGR-r202/test-p__Bacteroidota_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-p__Bacteroidota_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
   <si>
     <t>Row</t>
   </si>
@@ -361,9 +361,6 @@
     <t>even_MAG-GUT47205.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT47330.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT47800.fa</t>
   </si>
   <si>
@@ -508,9 +505,6 @@
     <t>even_MAG-GUT68785.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT69465.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT6955.fa</t>
   </si>
   <si>
@@ -566,9 +560,6 @@
   </si>
   <si>
     <t>even_MAG-GUT78923.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT80232.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT80330.fa</t>
@@ -655,7 +646,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -665,18 +656,14 @@
     </border>
     <border/>
     <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -686,7 +673,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C205"/>
+  <dimension ref="A1:C202"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="true"/>
@@ -695,18 +682,18 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>206</v>
+      <c r="B1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -717,7 +704,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -728,7 +715,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -739,7 +726,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -750,7 +737,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -761,7 +748,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -772,7 +759,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -783,7 +770,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -794,7 +781,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -805,7 +792,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -816,7 +803,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -827,7 +814,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -838,7 +825,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -849,7 +836,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -860,7 +847,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -871,7 +858,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -882,7 +869,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -893,7 +880,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -904,7 +891,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -915,7 +902,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -926,7 +913,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -937,7 +924,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -948,7 +935,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -959,7 +946,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -970,7 +957,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -981,7 +968,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -992,7 +979,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -1003,7 +990,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -1014,7 +1001,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -1025,7 +1012,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -1036,7 +1023,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -1047,7 +1034,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -1058,7 +1045,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -1069,7 +1056,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -1080,7 +1067,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B36">
@@ -1091,7 +1078,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B37">
@@ -1102,7 +1089,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B38">
@@ -1113,7 +1100,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B39">
@@ -1124,7 +1111,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B40">
@@ -1135,7 +1122,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B41">
@@ -1146,7 +1133,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B42">
@@ -1157,7 +1144,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B43">
@@ -1168,7 +1155,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B44">
@@ -1179,7 +1166,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B45">
@@ -1190,7 +1177,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B46">
@@ -1201,7 +1188,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B47">
@@ -1212,7 +1199,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B48">
@@ -1223,7 +1210,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B49">
@@ -1234,7 +1221,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B50">
@@ -1245,7 +1232,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B51">
@@ -1256,7 +1243,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B52">
@@ -1267,7 +1254,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B53">
@@ -1278,7 +1265,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B54">
@@ -1289,7 +1276,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B55">
@@ -1300,7 +1287,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B56">
@@ -1311,7 +1298,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B57">
@@ -1322,7 +1309,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B58">
@@ -1333,7 +1320,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B59">
@@ -1344,7 +1331,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B60">
@@ -1355,7 +1342,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B61">
@@ -1366,7 +1353,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B62">
@@ -1377,7 +1364,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B63">
@@ -1388,7 +1375,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B64">
@@ -1399,7 +1386,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B65">
@@ -1410,7 +1397,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B66">
@@ -1421,7 +1408,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B67">
@@ -1432,7 +1419,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B68">
@@ -1443,7 +1430,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B69">
@@ -1454,7 +1441,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B70">
@@ -1465,7 +1452,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B71">
@@ -1476,7 +1463,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B72">
@@ -1487,7 +1474,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B73">
@@ -1498,7 +1485,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B74">
@@ -1509,7 +1496,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B75">
@@ -1520,7 +1507,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B76">
@@ -1531,7 +1518,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B77">
@@ -1542,7 +1529,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B78">
@@ -1553,7 +1540,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B79">
@@ -1564,7 +1551,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B80">
@@ -1575,7 +1562,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B81">
@@ -1586,7 +1573,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B82">
@@ -1597,7 +1584,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B83">
@@ -1608,7 +1595,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B84">
@@ -1619,7 +1606,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B85">
@@ -1630,7 +1617,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B86">
@@ -1641,7 +1628,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B87">
@@ -1652,7 +1639,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B88">
@@ -1663,7 +1650,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B89">
@@ -1674,7 +1661,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B90">
@@ -1685,7 +1672,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B91">
@@ -1696,7 +1683,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B92">
@@ -1707,7 +1694,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B93">
@@ -1718,7 +1705,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B94">
@@ -1729,7 +1716,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B95">
@@ -1740,7 +1727,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B96">
@@ -1751,7 +1738,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B97">
@@ -1762,7 +1749,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B98">
@@ -1773,7 +1760,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B99">
@@ -1784,7 +1771,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B100">
@@ -1795,7 +1782,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="3" t="s">
+      <c r="A101" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B101">
@@ -1806,7 +1793,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B102">
@@ -1817,7 +1804,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="3" t="s">
+      <c r="A103" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B103">
@@ -1828,7 +1815,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="3" t="s">
+      <c r="A104" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B104">
@@ -1839,7 +1826,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B105">
@@ -1850,7 +1837,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="3" t="s">
+      <c r="A106" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B106">
@@ -1861,7 +1848,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B107">
@@ -1872,7 +1859,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="3" t="s">
+      <c r="A108" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B108">
@@ -1883,7 +1870,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B109">
@@ -1894,7 +1881,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="3" t="s">
+      <c r="A110" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B110">
@@ -1905,7 +1892,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="3" t="s">
+      <c r="A111" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B111">
@@ -1916,7 +1903,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="3" t="s">
+      <c r="A112" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B112">
@@ -1927,7 +1914,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="3" t="s">
+      <c r="A113" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B113">
@@ -1938,7 +1925,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="3" t="s">
+      <c r="A114" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B114">
@@ -1949,7 +1936,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="3" t="s">
+      <c r="A115" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B115">
@@ -1960,8 +1947,8 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="3" t="s">
-        <v>116</v>
+      <c r="A116" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="B116">
         <v>1049.7001492335689</v>
@@ -1971,8 +1958,8 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="3" t="s">
-        <v>117</v>
+      <c r="A117" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="B117">
         <v>1417.6939229598327</v>
@@ -1982,8 +1969,8 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="3" t="s">
-        <v>118</v>
+      <c r="A118" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="B118">
         <v>884.06627231085758</v>
@@ -1993,8 +1980,8 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="3" t="s">
-        <v>119</v>
+      <c r="A119" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="B119">
         <v>998.60665433740655</v>
@@ -2004,8 +1991,8 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="3" t="s">
-        <v>120</v>
+      <c r="A120" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="B120">
         <v>899.09793383453143</v>
@@ -2015,8 +2002,8 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="3" t="s">
-        <v>121</v>
+      <c r="A121" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="B121">
         <v>893.86176051540428</v>
@@ -2026,8 +2013,8 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="3" t="s">
-        <v>122</v>
+      <c r="A122" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="B122">
         <v>1652.9846716485993</v>
@@ -2037,8 +2024,8 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="3" t="s">
-        <v>123</v>
+      <c r="A123" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="B123">
         <v>1200.4657423024014</v>
@@ -2048,8 +2035,8 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="3" t="s">
-        <v>124</v>
+      <c r="A124" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="B124">
         <v>991.0835857966556</v>
@@ -2059,8 +2046,8 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="3" t="s">
-        <v>125</v>
+      <c r="A125" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="B125">
         <v>956.52597642629826</v>
@@ -2070,8 +2057,8 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="3" t="s">
-        <v>126</v>
+      <c r="A126" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="B126">
         <v>705.22378743076683</v>
@@ -2081,8 +2068,8 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="3" t="s">
-        <v>127</v>
+      <c r="A127" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="B127">
         <v>965.52541704113287</v>
@@ -2092,8 +2079,8 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="3" t="s">
-        <v>128</v>
+      <c r="A128" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="B128">
         <v>1322.7959454895363</v>
@@ -2103,8 +2090,8 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="3" t="s">
-        <v>129</v>
+      <c r="A129" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="B129">
         <v>1011.0236942060831</v>
@@ -2114,8 +2101,8 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="3" t="s">
-        <v>130</v>
+      <c r="A130" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="B130">
         <v>1277.5773442770405</v>
@@ -2125,8 +2112,8 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="3" t="s">
-        <v>131</v>
+      <c r="A131" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="B131">
         <v>1264.2288413608255</v>
@@ -2136,8 +2123,8 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="3" t="s">
-        <v>132</v>
+      <c r="A132" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="B132">
         <v>757.20939447556634</v>
@@ -2147,8 +2134,8 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="3" t="s">
-        <v>133</v>
+      <c r="A133" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="B133">
         <v>1340.0449194905152</v>
@@ -2158,8 +2145,8 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="3" t="s">
-        <v>134</v>
+      <c r="A134" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="B134">
         <v>1036.3627255987933</v>
@@ -2169,8 +2156,8 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="3" t="s">
-        <v>135</v>
+      <c r="A135" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="B135">
         <v>1041.1205803310218</v>
@@ -2180,8 +2167,8 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="3" t="s">
-        <v>136</v>
+      <c r="A136" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="B136">
         <v>705.13432795678045</v>
@@ -2191,8 +2178,8 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="3" t="s">
-        <v>137</v>
+      <c r="A137" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="B137">
         <v>1334.3458243548471</v>
@@ -2202,8 +2189,8 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="3" t="s">
-        <v>138</v>
+      <c r="A138" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="B138">
         <v>1209.1740088957097</v>
@@ -2213,8 +2200,8 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="3" t="s">
-        <v>139</v>
+      <c r="A139" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="B139">
         <v>1107.8674152404406</v>
@@ -2224,8 +2211,8 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="3" t="s">
-        <v>140</v>
+      <c r="A140" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="B140">
         <v>1505.3042380701456</v>
@@ -2235,8 +2222,8 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="3" t="s">
-        <v>141</v>
+      <c r="A141" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="B141">
         <v>995.27344335345174</v>
@@ -2246,8 +2233,8 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="3" t="s">
-        <v>142</v>
+      <c r="A142" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="B142">
         <v>541.88093790056791</v>
@@ -2257,8 +2244,8 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="3" t="s">
-        <v>143</v>
+      <c r="A143" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="B143">
         <v>796.14689923506216</v>
@@ -2268,8 +2255,8 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="3" t="s">
-        <v>144</v>
+      <c r="A144" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="B144">
         <v>1017.6493709106624</v>
@@ -2279,8 +2266,8 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="3" t="s">
-        <v>145</v>
+      <c r="A145" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="B145">
         <v>644.45936542207573</v>
@@ -2290,8 +2277,8 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="3" t="s">
-        <v>146</v>
+      <c r="A146" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="B146">
         <v>240.44300053812918</v>
@@ -2301,8 +2288,8 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="3" t="s">
-        <v>147</v>
+      <c r="A147" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="B147">
         <v>229.79213156914597</v>
@@ -2312,8 +2299,8 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="3" t="s">
-        <v>148</v>
+      <c r="A148" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="B148">
         <v>160.36366628164319</v>
@@ -2323,8 +2310,8 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="3" t="s">
-        <v>149</v>
+      <c r="A149" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="B149">
         <v>202.57708733591068</v>
@@ -2334,8 +2321,8 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="3" t="s">
-        <v>150</v>
+      <c r="A150" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="B150">
         <v>187.8272754387994</v>
@@ -2345,8 +2332,8 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="3" t="s">
-        <v>151</v>
+      <c r="A151" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="B151">
         <v>210.0657832764681</v>
@@ -2356,8 +2343,8 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="3" t="s">
-        <v>152</v>
+      <c r="A152" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="B152">
         <v>213.53815116978188</v>
@@ -2367,8 +2354,8 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="3" t="s">
-        <v>153</v>
+      <c r="A153" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="B153">
         <v>206.13603754838999</v>
@@ -2378,8 +2365,8 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="3" t="s">
-        <v>154</v>
+      <c r="A154" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="B154">
         <v>665.79336910060033</v>
@@ -2389,8 +2376,8 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="3" t="s">
-        <v>155</v>
+      <c r="A155" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="B155">
         <v>669.10009581143936</v>
@@ -2400,8 +2387,8 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="3" t="s">
-        <v>156</v>
+      <c r="A156" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="B156">
         <v>819.45598948323573</v>
@@ -2411,8 +2398,8 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="3" t="s">
-        <v>157</v>
+      <c r="A157" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="B157">
         <v>341.79052099911684</v>
@@ -2422,8 +2409,8 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="3" t="s">
-        <v>158</v>
+      <c r="A158" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="B158">
         <v>1393.4031261667453</v>
@@ -2433,8 +2420,8 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="3" t="s">
-        <v>159</v>
+      <c r="A159" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="B159">
         <v>626.70490282627065</v>
@@ -2444,8 +2431,8 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="3" t="s">
-        <v>160</v>
+      <c r="A160" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="B160">
         <v>1223.0679213573126</v>
@@ -2455,8 +2442,8 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="3" t="s">
-        <v>161</v>
+      <c r="A161" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="B161">
         <v>650.90027976206898</v>
@@ -2466,8 +2453,8 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="3" t="s">
-        <v>162</v>
+      <c r="A162" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="B162">
         <v>843.64830687173207</v>
@@ -2477,8 +2464,8 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="3" t="s">
-        <v>163</v>
+      <c r="A163" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="B163">
         <v>1255.0678160484233</v>
@@ -2488,8 +2475,8 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="3" t="s">
-        <v>165</v>
+      <c r="A164" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="B164">
         <v>585.92172127489039</v>
@@ -2499,8 +2486,8 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="3" t="s">
-        <v>166</v>
+      <c r="A165" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="B165">
         <v>484.39456939896428</v>
@@ -2510,8 +2497,8 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="3" t="s">
-        <v>167</v>
+      <c r="A166" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="B166">
         <v>734.89107627895305</v>
@@ -2521,8 +2508,8 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="3" t="s">
-        <v>168</v>
+      <c r="A167" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="B167">
         <v>1192.3812251245572</v>
@@ -2532,8 +2519,8 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="3" t="s">
-        <v>169</v>
+      <c r="A168" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="B168">
         <v>282.82215759820662</v>
@@ -2543,8 +2530,8 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="3" t="s">
-        <v>170</v>
+      <c r="A169" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="B169">
         <v>588.05285681662303</v>
@@ -2554,8 +2541,8 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="3" t="s">
-        <v>171</v>
+      <c r="A170" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="B170">
         <v>819.55090240428649</v>
@@ -2565,8 +2552,8 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="3" t="s">
-        <v>172</v>
+      <c r="A171" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="B171">
         <v>1025.3617287269969</v>
@@ -2576,8 +2563,8 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="3" t="s">
-        <v>173</v>
+      <c r="A172" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="B172">
         <v>696.36479892337343</v>
@@ -2587,8 +2574,8 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="3" t="s">
-        <v>174</v>
+      <c r="A173" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="B173">
         <v>817.83371921907656</v>
@@ -2598,8 +2585,8 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="3" t="s">
-        <v>175</v>
+      <c r="A174" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="B174">
         <v>1542.3300636430756</v>
@@ -2609,8 +2596,8 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="3" t="s">
-        <v>176</v>
+      <c r="A175" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="B175">
         <v>816.78791199640659</v>
@@ -2620,8 +2607,8 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="3" t="s">
-        <v>177</v>
+      <c r="A176" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="B176">
         <v>909.27144631730312</v>
@@ -2631,8 +2618,8 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="3" t="s">
-        <v>178</v>
+      <c r="A177" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="B177">
         <v>1005.3535197822789</v>
@@ -2642,8 +2629,8 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="3" t="s">
-        <v>179</v>
+      <c r="A178" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="B178">
         <v>816.59364680809995</v>
@@ -2653,8 +2640,8 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="3" t="s">
-        <v>180</v>
+      <c r="A179" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="B179">
         <v>1124.2575606191519</v>
@@ -2664,8 +2651,8 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="3" t="s">
-        <v>181</v>
+      <c r="A180" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="B180">
         <v>1382.8759034850746</v>
@@ -2675,8 +2662,8 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="3" t="s">
-        <v>182</v>
+      <c r="A181" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="B181">
         <v>678.8979574815105</v>
@@ -2686,8 +2673,8 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="3" t="s">
-        <v>183</v>
+      <c r="A182" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="B182">
         <v>621.84749897212987</v>
@@ -2697,8 +2684,8 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="3" t="s">
-        <v>185</v>
+      <c r="A183" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="B183">
         <v>978.28326742838613</v>
@@ -2708,8 +2695,8 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="3" t="s">
-        <v>186</v>
+      <c r="A184" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="B184">
         <v>819.94061780537663</v>
@@ -2719,8 +2706,8 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="3" t="s">
-        <v>187</v>
+      <c r="A185" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="B185">
         <v>903.2933501435682</v>
@@ -2730,8 +2717,8 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="3" t="s">
-        <v>188</v>
+      <c r="A186" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="B186">
         <v>853.80684288159</v>
@@ -2741,8 +2728,8 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="3" t="s">
-        <v>189</v>
+      <c r="A187" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="B187">
         <v>717.71780466036012</v>
@@ -2752,8 +2739,8 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="3" t="s">
-        <v>190</v>
+      <c r="A188" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="B188">
         <v>573.66971693705887</v>
@@ -2763,8 +2750,8 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="3" t="s">
-        <v>191</v>
+      <c r="A189" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="B189">
         <v>903.53176372221651</v>
@@ -2774,8 +2761,8 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="3" t="s">
-        <v>192</v>
+      <c r="A190" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="B190">
         <v>589.55259047158984</v>
@@ -2785,8 +2772,8 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="3" t="s">
-        <v>193</v>
+      <c r="A191" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="B191">
         <v>745.52318155683884</v>
@@ -2796,8 +2783,8 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="3" t="s">
-        <v>194</v>
+      <c r="A192" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="B192">
         <v>769.76263111090589</v>
@@ -2807,8 +2794,8 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="3" t="s">
-        <v>195</v>
+      <c r="A193" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="B193">
         <v>879.29100461188341</v>
@@ -2818,8 +2805,8 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="3" t="s">
-        <v>196</v>
+      <c r="A194" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="B194">
         <v>651.98994849802034</v>
@@ -2829,8 +2816,8 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="3" t="s">
-        <v>197</v>
+      <c r="A195" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="B195">
         <v>962.84450733129324</v>
@@ -2840,8 +2827,8 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="3" t="s">
-        <v>198</v>
+      <c r="A196" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="B196">
         <v>626.54148063508228</v>
@@ -2851,8 +2838,8 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="3" t="s">
-        <v>199</v>
+      <c r="A197" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="B197">
         <v>932.37971746405697</v>
@@ -2862,8 +2849,8 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="3" t="s">
-        <v>200</v>
+      <c r="A198" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="B198">
         <v>587.18530643348663</v>
@@ -2873,8 +2860,8 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="3" t="s">
-        <v>201</v>
+      <c r="A199" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="B199">
         <v>776.16463472056921</v>
@@ -2884,8 +2871,8 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="3" t="s">
-        <v>202</v>
+      <c r="A200" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="B200">
         <v>843.21434942071892</v>
@@ -2895,8 +2882,8 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="3" t="s">
-        <v>203</v>
+      <c r="A201" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="B201">
         <v>816.72858786416759</v>
@@ -2906,46 +2893,13 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="3" t="s">
-        <v>204</v>
+      <c r="A202" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="B202">
         <v>1292.2860709773247</v>
       </c>
       <c r="C202">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B203">
-        <v>1</v>
-      </c>
-      <c r="C203">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B204">
-        <v>1</v>
-      </c>
-      <c r="C204">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B205">
-        <v>1</v>
-      </c>
-      <c r="C205">
         <v>1</v>
       </c>
     </row>
